--- a/public/s3/services-sheet.xlsx
+++ b/public/s3/services-sheet.xlsx
@@ -30,7 +30,7 @@
     <t>express_usd_price</t>
   </si>
   <si>
-    <t>visa_country_name</t>
+    <t>nationality</t>
   </si>
 </sst>
 </file>
@@ -365,7 +365,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
